--- a/Texts/Вызовы боссов/Месприт (Зыбучие Пещеры).xlsx
+++ b/Texts/Вызовы боссов/Месприт (Зыбучие Пещеры).xlsx
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
